--- a/cases/lxgk_cases/test_data.xlsx
+++ b/cases/lxgk_cases/test_data.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lexue\PycharmProjects\LXRunner\cases\lxgk_cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myDev\pythonApiTest\cases\lxgk_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC735DF-8436-425B-A9BE-A3E2FA2C769E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$M$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$M$2</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"Content-Type": "application/json;charset=utf-8", "did": "7F42B8F7AC6E4AFEBEEFC6E1C5B37BEE", "grade": "3", "os": "iPhone", "client": "SENIOR_TEACH", "version": "app_version","lgtk": "token"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>multipart/form-data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,10 +212,6 @@
   </si>
   <si>
     <t>c.assert_status_code(200)&amp;c.assert_equal('$..title', '高一生物（基因表达）')&amp;c.assert_equal('$..rpco', 200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c.assert_status_code(200)&amp;c.assert_equal('$..rpco', 200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -244,51 +238,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/sysUser/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"loginName":"13671388253","password":"388253"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"appKey":"201820011141153","Content-Type":"application/x-www-form-urlencoded","signature":"1119E9D5C9468DD944A9F96E61D7365B3F47D5A4"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
+    <t>listCampusRegion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=0&amp;selectId=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/basic/campusRegion/listCampusRegion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"appKey":"201820011141153","isAdmin":"2","signature":"signature_value","token":"token_value","userId":"userId_value"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.assert_status_code(200)&amp;c.assert_equal('$..code', 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.assert_status_code(0)&amp;c.assert_equal('$..code', 0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +334,21 @@
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -374,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -392,6 +432,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,33 +729,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="11.58203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9" style="11" customWidth="1"/>
+    <col min="6" max="6" width="24" style="11" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="11" customWidth="1"/>
+    <col min="8" max="8" width="37" style="11" customWidth="1"/>
+    <col min="9" max="9" width="38.75" style="11" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="28.25" style="11" customWidth="1"/>
+    <col min="14" max="14" width="9" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="202" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="311" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA90ECF-F4E6-4ACD-BDC4-9CE281978057}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="11.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="7.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
     <col min="6" max="6" width="24" style="5" customWidth="1"/>
     <col min="7" max="7" width="7.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="26.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="38.75" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="20.875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="5" customWidth="1"/>
     <col min="13" max="13" width="28.25" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="5"/>
+    <col min="14" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -741,12 +942,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
@@ -762,34 +963,34 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>36</v>
@@ -799,25 +1000,25 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -844,13 +1045,13 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -878,16 +1079,16 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -915,18 +1116,18 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -945,21 +1146,21 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -985,10 +1186,10 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>33</v>
@@ -997,13 +1198,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" display="https://gkapisdev.lexue.com/goods/v1/getGoodsDetail"/>
-    <hyperlink ref="F4" r:id="rId2" display="https://gkapisdev.lexue.com/product/v1/search"/>
-    <hyperlink ref="F6" r:id="rId3" display="https://gkapisdev.lexue.com/cart/v1/add?"/>
-    <hyperlink ref="F7" r:id="rId4" display="https://gkapisdev.lexue.com/cart/v1/add?"/>
-    <hyperlink ref="F8" r:id="rId5" display="https://gkapisdev.lexue.com/cart/v1/add?"/>
+    <hyperlink ref="F5" r:id="rId1" display="https://gkapisdev.lexue.com/goods/v1/getGoodsDetail" xr:uid="{DE494E77-F4AA-40A7-9005-91A1466F1EBE}"/>
+    <hyperlink ref="F4" r:id="rId2" display="https://gkapisdev.lexue.com/product/v1/search" xr:uid="{D14A3428-FB87-47EC-BA5D-35659ECD249D}"/>
+    <hyperlink ref="F6" r:id="rId3" display="https://gkapisdev.lexue.com/cart/v1/add?" xr:uid="{ED6D1065-36D8-4B7D-86BF-8BAFA359132F}"/>
+    <hyperlink ref="F7" r:id="rId4" display="https://gkapisdev.lexue.com/cart/v1/add?" xr:uid="{251BCBB2-F462-4939-BD8C-31C7CB3C762A}"/>
+    <hyperlink ref="F8" r:id="rId5" display="https://gkapisdev.lexue.com/cart/v1/add?" xr:uid="{607EC6C5-188B-4313-91C7-4925302AB38B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
--- a/cases/lxgk_cases/test_data.xlsx
+++ b/cases/lxgk_cases/test_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myDev\pythonApiTest\cases\lxgk_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC735DF-8436-425B-A9BE-A3E2FA2C769E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF64058-62D4-4517-B451-6626D41F262E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,18 +234,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,57 +247,6 @@
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/system/sysUser/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"loginName":"13671388253","password":"388253"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"appKey":"201820011141153","Content-Type":"application/x-www-form-urlencoded","signature":"1119E9D5C9468DD944A9F96E61D7365B3F47D5A4"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listCampusRegion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id=0&amp;selectId=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/basic/campusRegion/listCampusRegion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"appKey":"201820011141153","isAdmin":"2","signature":"signature_value","token":"token_value","userId":"userId_value"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c.assert_status_code(200)&amp;c.assert_equal('$..code', 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c.assert_status_code(0)&amp;c.assert_equal('$..code', 0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,21 +671,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="11.58203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="11" customWidth="1"/>
+    <col min="1" max="1" width="18.4140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="19" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="11" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20.9140625" style="11" customWidth="1"/>
     <col min="6" max="6" width="24" style="11" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14" style="11" customWidth="1"/>
     <col min="8" max="8" width="37" style="11" customWidth="1"/>
     <col min="9" max="9" width="38.75" style="11" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" style="11" customWidth="1"/>
@@ -755,7 +696,7 @@
     <col min="15" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -796,77 +737,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="202" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>58</v>
-      </c>
+    <row r="2" spans="1:13" ht="311" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="311" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -879,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA90ECF-F4E6-4ACD-BDC4-9CE281978057}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -947,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
@@ -981,10 +865,10 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
@@ -1018,7 +902,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -1127,7 +1011,7 @@
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -1160,7 +1044,7 @@
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
